--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Downloads\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA39DE7E-43E5-4106-955E-E09D72513849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE69642-A430-4044-BB43-6F34AD982E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -141,33 +141,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5D5D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -485,7 +476,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,20 +489,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -529,11 +520,11 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="3"/>
       <c r="E3" t="s">
         <v>15</v>
       </c>
@@ -542,13 +533,13 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>45250</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" t="s">
         <v>15</v>
       </c>
@@ -557,11 +548,11 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="3"/>
       <c r="E5" t="s">
         <v>15</v>
       </c>
@@ -570,13 +561,13 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>45265</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
         <v>45306</v>
       </c>
       <c r="E6" t="s">
@@ -587,11 +578,11 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="3"/>
       <c r="E7" t="s">
         <v>15</v>
       </c>
@@ -600,11 +591,11 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="3"/>
       <c r="E8" t="s">
         <v>15</v>
       </c>
@@ -613,11 +604,11 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>45306</v>
       </c>
       <c r="E9" t="s">
@@ -628,13 +619,13 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>45265</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
         <v>45306</v>
       </c>
       <c r="E10" t="s">
@@ -642,36 +633,36 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="16:17" x14ac:dyDescent="0.3">
-      <c r="P17" s="6"/>
-      <c r="Q17" s="5"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="16:17" x14ac:dyDescent="0.3">
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Downloads\BCAOL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE69642-A430-4044-BB43-6F34AD982E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82C8B65-149B-44E2-A651-F550258C1FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,9 +520,11 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>45270</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82C8B65-149B-44E2-A651-F550258C1FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C80842-91BE-4024-9CD2-51A57F5E28A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,9 +550,11 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>45275</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
@@ -580,7 +582,9 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>45280</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
@@ -606,15 +610,14 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3">
+        <v>45306</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3">
-        <v>45306</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C80842-91BE-4024-9CD2-51A57F5E28A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4B06E2-57A7-470D-96F5-A094F0AC977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
         <v>45275</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
@@ -586,7 +586,7 @@
         <v>45280</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4B06E2-57A7-470D-96F5-A094F0AC977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83157A2F-047F-45BB-9FCA-49C5116DBFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,7 +539,7 @@
         <v>45250</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
@@ -569,7 +569,7 @@
         <v>45265</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3">
         <v>45306</v>
@@ -628,7 +628,7 @@
         <v>45265</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3">
         <v>45306</v>

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83157A2F-047F-45BB-9FCA-49C5116DBFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8603BF-7AF7-446F-81B8-4E3F01C504E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,7 +569,7 @@
         <v>45265</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3">
         <v>45306</v>

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8603BF-7AF7-446F-81B8-4E3F01C504E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F4A7D9-F7E0-4BF9-894E-D24E8C7AEA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +524,7 @@
         <v>45270</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F4A7D9-F7E0-4BF9-894E-D24E8C7AEA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F68B37-2F38-4CE4-9AA9-8ED2677E8FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
         <v>45275</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F68B37-2F38-4CE4-9AA9-8ED2677E8FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7939953-BC2D-4A71-9203-E44E7470B0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
         <v>45275</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
@@ -586,7 +586,7 @@
         <v>45280</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
@@ -616,8 +616,11 @@
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D9" s="3">
+        <v>45322</v>
+      </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -634,7 +637,7 @@
         <v>45306</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7939953-BC2D-4A71-9203-E44E7470B0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9D7D25-D705-46F3-A496-99E5D2EA5529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,9 +526,11 @@
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>45306</v>
+      </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -541,9 +543,11 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>45301</v>
+      </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -637,7 +641,7 @@
         <v>45306</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9D7D25-D705-46F3-A496-99E5D2EA5529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20703B8-AA67-4F84-A49D-3E40F276F0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Semester1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -476,7 +476,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,8 +529,8 @@
       <c r="D3" s="3">
         <v>45306</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -546,7 +546,7 @@
       <c r="D4" s="3">
         <v>45301</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -578,7 +578,7 @@
       <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -593,7 +593,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -606,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -623,7 +623,7 @@
       <c r="D9" s="3">
         <v>45322</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -640,7 +640,7 @@
       <c r="D10" s="3">
         <v>45306</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20703B8-AA67-4F84-A49D-3E40F276F0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED58173F-6121-4D2D-A9CE-F1CD1D33E843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,7 +618,7 @@
         <v>45306</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3">
         <v>45322</v>
@@ -641,7 +641,7 @@
         <v>45306</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED58173F-6121-4D2D-A9CE-F1CD1D33E843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B647F5E-8EAA-42EA-A98D-64FA872BF5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,9 +560,11 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>45303</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B647F5E-8EAA-42EA-A98D-64FA872BF5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158697BA-3B58-4763-AFE4-2922DF431D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Subjects</t>
   </si>
@@ -63,21 +63,9 @@
     <t>Digital Productivity Tools for Moden Workplaces</t>
   </si>
   <si>
-    <t>Assignment 1</t>
-  </si>
-  <si>
-    <t>Assigment2</t>
-  </si>
-  <si>
     <t>Computational Thinking and Fundamentals of IT</t>
   </si>
   <si>
-    <t>DueDate</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -91,6 +79,24 @@
   </si>
   <si>
     <t>On Hold</t>
+  </si>
+  <si>
+    <t>A1 DueDate</t>
+  </si>
+  <si>
+    <t>A1 Status</t>
+  </si>
+  <si>
+    <t>A2 DueDate</t>
+  </si>
+  <si>
+    <t>A2 Status</t>
+  </si>
+  <si>
+    <t>A1 Overdue</t>
+  </si>
+  <si>
+    <t>A2 Overdue</t>
   </si>
 </sst>
 </file>
@@ -135,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -145,9 +151,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -473,243 +476,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC8AF22-169A-4F1A-80C8-A4113118EB96}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45270</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="str">
+        <f ca="1">IF(AND(B2&lt;TODAY(), C2=""), "Overdue", "Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45306</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="str">
+        <f ca="1">IF(AND(E2&lt;TODAY(), F2&lt;&gt;"Sumitted", F2&lt;&gt;"Completed"), "Overdue", "Done")</f>
+        <v>Done</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45250</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D9" ca="1" si="0">IF(AND(B3&lt;TODAY(), C3=""), "Overdue", "Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45301</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G9" ca="1" si="1">IF(AND(E3&lt;TODAY(), F3=""), "Overdue", "Done")</f>
+        <v>Done</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45275</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Done</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45303</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Done</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45265</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Done</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45306</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Done</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45280</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Done</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Done</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Done</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Done</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45306</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>45270</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="D8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Done</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45322</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Done</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45265</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Done</v>
+      </c>
+      <c r="E9" s="3">
         <v>45306</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>45250</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45301</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>45275</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45303</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45265</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45306</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>45280</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>45306</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3">
-        <v>45322</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45265</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45306</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P11" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Done</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P12" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P13" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P14" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P15" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="16:17" x14ac:dyDescent="0.3">
-      <c r="P17" s="4"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q16" s="4"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="16:17" x14ac:dyDescent="0.3">
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="R17" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" tooltip="Mathematical Foundation of Computer Science" display="https://lms.geuonline.com/d2l/home/7155" xr:uid="{9E88C4FC-CF11-499C-8395-3B39F8389ED8}"/>
-    <hyperlink ref="A4" r:id="rId2" tooltip="Foundations of Computer Programming" display="https://lms.geuonline.com/d2l/home/7152" xr:uid="{B3554CD2-F6F3-4440-B35D-51DEA5647B9B}"/>
-    <hyperlink ref="A5" r:id="rId3" tooltip="Professional English Skills" display="https://lms.geuonline.com/d2l/home/7157" xr:uid="{56D67CAF-1B46-498F-91E3-5DDF3D410054}"/>
-    <hyperlink ref="A6" r:id="rId4" tooltip="Principles and Practices of Management" display="https://lms.geuonline.com/d2l/home/7159" xr:uid="{23DB5A08-6175-4D5B-BFAF-2738A8767CDD}"/>
-    <hyperlink ref="A7" r:id="rId5" tooltip="C Programming Laboratory" display="https://lms.geuonline.com/d2l/home/7154" xr:uid="{35A41136-B392-4BE1-A159-FFE467FA3ECF}"/>
-    <hyperlink ref="A8" r:id="rId6" tooltip="General Proficiency/NCC/Sports/Yoga/Healthy Living and Fitness" display="https://lms.geuonline.com/d2l/home/7161" xr:uid="{B849C565-3A13-4296-94EC-C2AE9B1CDB8E}"/>
-    <hyperlink ref="A9" r:id="rId7" tooltip="Digital Productivity Tools for Moden Workplaces" display="https://lms.geuonline.com/d2l/home/7156" xr:uid="{C2F00D2B-8EC1-4BF0-A675-8F70F5A48835}"/>
-    <hyperlink ref="A10" r:id="rId8" tooltip="Computational Thinking and Fundamentals of IT" display="https://lms.geuonline.com/d2l/home/7158" xr:uid="{1B5D48A0-A851-4EF4-84D2-40660AAF0465}"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="Mathematical Foundation of Computer Science" display="https://lms.geuonline.com/d2l/home/7155" xr:uid="{9E88C4FC-CF11-499C-8395-3B39F8389ED8}"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="Foundations of Computer Programming" display="https://lms.geuonline.com/d2l/home/7152" xr:uid="{B3554CD2-F6F3-4440-B35D-51DEA5647B9B}"/>
+    <hyperlink ref="A4" r:id="rId3" tooltip="Professional English Skills" display="https://lms.geuonline.com/d2l/home/7157" xr:uid="{56D67CAF-1B46-498F-91E3-5DDF3D410054}"/>
+    <hyperlink ref="A5" r:id="rId4" tooltip="Principles and Practices of Management" display="https://lms.geuonline.com/d2l/home/7159" xr:uid="{23DB5A08-6175-4D5B-BFAF-2738A8767CDD}"/>
+    <hyperlink ref="A6" r:id="rId5" tooltip="C Programming Laboratory" display="https://lms.geuonline.com/d2l/home/7154" xr:uid="{35A41136-B392-4BE1-A159-FFE467FA3ECF}"/>
+    <hyperlink ref="A7" r:id="rId6" tooltip="General Proficiency/NCC/Sports/Yoga/Healthy Living and Fitness" display="https://lms.geuonline.com/d2l/home/7161" xr:uid="{B849C565-3A13-4296-94EC-C2AE9B1CDB8E}"/>
+    <hyperlink ref="A8" r:id="rId7" tooltip="Digital Productivity Tools for Moden Workplaces" display="https://lms.geuonline.com/d2l/home/7156" xr:uid="{C2F00D2B-8EC1-4BF0-A675-8F70F5A48835}"/>
+    <hyperlink ref="A9" r:id="rId8" tooltip="Computational Thinking and Fundamentals of IT" display="https://lms.geuonline.com/d2l/home/7158" xr:uid="{1B5D48A0-A851-4EF4-84D2-40660AAF0465}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Entry" error="Select values from dropdown" xr:uid="{9928484A-5DB6-4C8C-921B-50B6356B25EB}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C10</xm:sqref>
+          <xm:sqref>C2:C9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Entry" error="Select value from dropdown" xr:uid="{D43BA407-0993-4F70-9151-EA5975733DBA}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E10</xm:sqref>
+          <xm:sqref>F2:F9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -732,27 +787,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158697BA-3B58-4763-AFE4-2922DF431D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0077A037-547A-472F-BEFC-1B53025AD932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +558,7 @@
         <v>45301</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G9" ca="1" si="1">IF(AND(E3&lt;TODAY(), F3=""), "Overdue", "Done")</f>
@@ -753,7 +753,7 @@
   <pageSetup orientation="portrait" r:id="rId9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Entry" error="Select values from dropdown" xr:uid="{9928484A-5DB6-4C8C-921B-50B6356B25EB}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$5</xm:f>

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0077A037-547A-472F-BEFC-1B53025AD932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB87ED8-9984-42E1-AE1E-3D68B3E9B3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +583,7 @@
         <v>45303</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="1"/>

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB87ED8-9984-42E1-AE1E-3D68B3E9B3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7A125C-6CC9-4EB1-8E44-217153A7CBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Semester1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Semester1!$A$1:$A$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Subjects</t>
   </si>
@@ -93,10 +96,7 @@
     <t>A2 Status</t>
   </si>
   <si>
-    <t>A1 Overdue</t>
-  </si>
-  <si>
-    <t>A2 Overdue</t>
+    <t>Seminar - 1</t>
   </si>
 </sst>
 </file>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC8AF22-169A-4F1A-80C8-A4113118EB96}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,12 +487,11 @@
     <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -502,255 +501,201 @@
       <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45280</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45265</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45306</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45306</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45322</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45250</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45301</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45270</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45306</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45265</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45306</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45275</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45303</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>45270</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="str">
-        <f ca="1">IF(AND(B2&lt;TODAY(), C2=""), "Overdue", "Done")</f>
-        <v>Done</v>
-      </c>
-      <c r="E2" s="3">
-        <v>45306</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B10" s="3">
+        <v>45316</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="str">
-        <f ca="1">IF(AND(E2&lt;TODAY(), F2&lt;&gt;"Sumitted", F2&lt;&gt;"Completed"), "Overdue", "Done")</f>
-        <v>Done</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>45250</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D9" ca="1" si="0">IF(AND(B3&lt;TODAY(), C3=""), "Overdue", "Done")</f>
-        <v>Done</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45301</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G9" ca="1" si="1">IF(AND(E3&lt;TODAY(), F3=""), "Overdue", "Done")</f>
-        <v>Done</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>45275</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Done</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45303</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Done</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>45265</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Done</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45306</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Done</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45280</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Done</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Done</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Done</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Done</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>45306</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Done</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45322</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Done</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>45265</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Done</v>
-      </c>
-      <c r="E9" s="3">
-        <v>45306</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Done</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q16" s="4"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="17:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A17" xr:uid="{1BC8AF22-169A-4F1A-80C8-A4113118EB96}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
+      <sortCondition ref="A1:A17"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="Mathematical Foundation of Computer Science" display="https://lms.geuonline.com/d2l/home/7155" xr:uid="{9E88C4FC-CF11-499C-8395-3B39F8389ED8}"/>
-    <hyperlink ref="A3" r:id="rId2" tooltip="Foundations of Computer Programming" display="https://lms.geuonline.com/d2l/home/7152" xr:uid="{B3554CD2-F6F3-4440-B35D-51DEA5647B9B}"/>
-    <hyperlink ref="A4" r:id="rId3" tooltip="Professional English Skills" display="https://lms.geuonline.com/d2l/home/7157" xr:uid="{56D67CAF-1B46-498F-91E3-5DDF3D410054}"/>
-    <hyperlink ref="A5" r:id="rId4" tooltip="Principles and Practices of Management" display="https://lms.geuonline.com/d2l/home/7159" xr:uid="{23DB5A08-6175-4D5B-BFAF-2738A8767CDD}"/>
-    <hyperlink ref="A6" r:id="rId5" tooltip="C Programming Laboratory" display="https://lms.geuonline.com/d2l/home/7154" xr:uid="{35A41136-B392-4BE1-A159-FFE467FA3ECF}"/>
-    <hyperlink ref="A7" r:id="rId6" tooltip="General Proficiency/NCC/Sports/Yoga/Healthy Living and Fitness" display="https://lms.geuonline.com/d2l/home/7161" xr:uid="{B849C565-3A13-4296-94EC-C2AE9B1CDB8E}"/>
-    <hyperlink ref="A8" r:id="rId7" tooltip="Digital Productivity Tools for Moden Workplaces" display="https://lms.geuonline.com/d2l/home/7156" xr:uid="{C2F00D2B-8EC1-4BF0-A675-8F70F5A48835}"/>
-    <hyperlink ref="A9" r:id="rId8" tooltip="Computational Thinking and Fundamentals of IT" display="https://lms.geuonline.com/d2l/home/7158" xr:uid="{1B5D48A0-A851-4EF4-84D2-40660AAF0465}"/>
+    <hyperlink ref="A7" r:id="rId1" tooltip="Mathematical Foundation of Computer Science" display="https://lms.geuonline.com/d2l/home/7155" xr:uid="{9E88C4FC-CF11-499C-8395-3B39F8389ED8}"/>
+    <hyperlink ref="A5" r:id="rId2" tooltip="Foundations of Computer Programming" display="https://lms.geuonline.com/d2l/home/7152" xr:uid="{B3554CD2-F6F3-4440-B35D-51DEA5647B9B}"/>
+    <hyperlink ref="A9" r:id="rId3" tooltip="Professional English Skills" display="https://lms.geuonline.com/d2l/home/7157" xr:uid="{56D67CAF-1B46-498F-91E3-5DDF3D410054}"/>
+    <hyperlink ref="A8" r:id="rId4" tooltip="Principles and Practices of Management" display="https://lms.geuonline.com/d2l/home/7159" xr:uid="{23DB5A08-6175-4D5B-BFAF-2738A8767CDD}"/>
+    <hyperlink ref="A2" r:id="rId5" tooltip="C Programming Laboratory" display="https://lms.geuonline.com/d2l/home/7154" xr:uid="{35A41136-B392-4BE1-A159-FFE467FA3ECF}"/>
+    <hyperlink ref="A6" r:id="rId6" tooltip="General Proficiency/NCC/Sports/Yoga/Healthy Living and Fitness" display="https://lms.geuonline.com/d2l/home/7161" xr:uid="{B849C565-3A13-4296-94EC-C2AE9B1CDB8E}"/>
+    <hyperlink ref="A4" r:id="rId7" tooltip="Digital Productivity Tools for Moden Workplaces" display="https://lms.geuonline.com/d2l/home/7156" xr:uid="{C2F00D2B-8EC1-4BF0-A675-8F70F5A48835}"/>
+    <hyperlink ref="A3" r:id="rId8" tooltip="Computational Thinking and Fundamentals of IT" display="https://lms.geuonline.com/d2l/home/7158" xr:uid="{1B5D48A0-A851-4EF4-84D2-40660AAF0465}"/>
+    <hyperlink ref="A10" r:id="rId9" tooltip="Seminar - 1" display="https://lms.geuonline.com/d2l/home/7160" xr:uid="{FDB00707-F10F-4983-BA28-A4B6A680A318}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -758,13 +703,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C9</xm:sqref>
+          <xm:sqref>C2:C6 C7:C10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Entry" error="Select value from dropdown" xr:uid="{D43BA407-0993-4F70-9151-EA5975733DBA}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F9</xm:sqref>
+          <xm:sqref>E2:E6 E7:E10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaan.kothidar\Documents\GitHub\BCAOL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6129158\Projects\extras\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7A125C-6CC9-4EB1-8E44-217153A7CBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AC36C0-CEBE-49F3-96C6-C6C7292CFC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
   <sheets>
     <sheet name="Semester1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Semester2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Semester1!$A$1:$A$17</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>Subjects</t>
   </si>
@@ -97,6 +98,36 @@
   </si>
   <si>
     <t>Seminar - 1</t>
+  </si>
+  <si>
+    <t>General Proficiency/NCC/Sports/Yoga/Seminar/</t>
+  </si>
+  <si>
+    <t>Object-Oriented Programming Laboratory</t>
+  </si>
+  <si>
+    <t>Data Structures Laboratory</t>
+  </si>
+  <si>
+    <t>Environmental Science</t>
+  </si>
+  <si>
+    <t>Indian Constitution</t>
+  </si>
+  <si>
+    <t>Indian Culture</t>
+  </si>
+  <si>
+    <t>Discrete Mathematics</t>
+  </si>
+  <si>
+    <t>Introduction to Operating Systems</t>
+  </si>
+  <si>
+    <t>Introduction to Object-Oriented Programming</t>
+  </si>
+  <si>
+    <t>Data Structures and File Organization</t>
   </si>
 </sst>
 </file>
@@ -478,20 +509,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC8AF22-169A-4F1A-80C8-A4113118EB96}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -508,7 +539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -522,7 +553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -539,7 +570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -556,7 +587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -573,7 +604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -584,7 +615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -601,7 +632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -618,7 +649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -635,7 +666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -649,31 +680,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="P16" s="4"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="16:17" x14ac:dyDescent="0.45">
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
@@ -718,6 +749,188 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79FA370-F25F-4907-9A9C-CC9BDBB953BA}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" tooltip="General Proficiency/NCC/Sports/Yoga/Seminar/Science of Happiness" display="https://lms.geuonline.com/d2l/home/7284" xr:uid="{35AF24BF-96CC-4FBB-BD22-BD3AD75FBB92}"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="Data Structures Laboratory" display="https://lms.geuonline.com/d2l/home/7276" xr:uid="{9A89056B-72A9-4109-87A3-E5FC9EC9943A}"/>
+    <hyperlink ref="A4" r:id="rId3" tooltip="Environmental Science" display="https://lms.geuonline.com/d2l/home/7283" xr:uid="{60F90554-A5B4-4547-8555-1EF4C4369A2E}"/>
+    <hyperlink ref="A5" r:id="rId4" tooltip="Object-Oriented Programming Laboratory" display="https://lms.geuonline.com/d2l/home/7277" xr:uid="{073CA52A-FA1D-4772-BD3E-23C67F44E056}"/>
+    <hyperlink ref="A6" r:id="rId5" tooltip="Indian Constitution" display="https://lms.geuonline.com/d2l/home/7279" xr:uid="{3605C8EB-7423-472E-8D6D-0E165E5C74FD}"/>
+    <hyperlink ref="A7" r:id="rId6" tooltip="Indian Culture" display="https://lms.geuonline.com/d2l/home/7280" xr:uid="{4386E46E-365F-497A-99E0-BD6265F57DD2}"/>
+    <hyperlink ref="A8" r:id="rId7" tooltip="Discrete Mathematics" display="https://lms.geuonline.com/d2l/home/7275" xr:uid="{8845BE5F-855B-4FE5-B4AC-246A339E9C82}"/>
+    <hyperlink ref="A9" r:id="rId8" tooltip="Introduction to Operating Systems" display="https://lms.geuonline.com/d2l/home/7274" xr:uid="{9F400D77-FDE6-4A87-ABC9-D8E1B9F2BFF5}"/>
+    <hyperlink ref="A10" r:id="rId9" tooltip="Introduction to Object-Oriented Programming" display="https://lms.geuonline.com/d2l/home/7281" xr:uid="{758AFB29-2A3B-42B0-9EF5-FA9BEFA0251F}"/>
+    <hyperlink ref="A11" r:id="rId10" tooltip="Data Structures and File Organization" display="https://lms.geuonline.com/d2l/home/7282" xr:uid="{43A6C3DF-9620-4830-A0CF-468468703AC4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Entry" error="Select value from dropdown" xr:uid="{45A27309-C72D-4FC5-84B4-B8A95D617205}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Entry" error="Select values from dropdown" xr:uid="{D74D6EEB-58B4-4A7E-9BD8-441B9DECAA0B}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD1067B-2C9C-4B51-80DF-958DE6025D8C}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -725,32 +938,32 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6129158\Projects\extras\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AC36C0-CEBE-49F3-96C6-C6C7292CFC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847A89C2-9E13-4D6C-85FE-0C9624072F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
   <sheets>
     <sheet name="Semester1" sheetId="1" r:id="rId1"/>
     <sheet name="Semester2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="status index" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Semester1!$A$1:$A$17</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
   <si>
     <t>Subjects</t>
   </si>
@@ -128,6 +128,24 @@
   </si>
   <si>
     <t>Data Structures and File Organization</t>
+  </si>
+  <si>
+    <t>Quizes</t>
+  </si>
+  <si>
+    <t>3=3</t>
+  </si>
+  <si>
+    <t>0=3</t>
+  </si>
+  <si>
+    <t>0=0</t>
+  </si>
+  <si>
+    <t>4=4</t>
+  </si>
+  <si>
+    <t>2=2</t>
   </si>
 </sst>
 </file>
@@ -172,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -187,6 +205,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -211,9 +231,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -251,7 +271,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -357,7 +377,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -732,13 +752,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Entry" error="Select values from dropdown" xr:uid="{9928484A-5DB6-4C8C-921B-50B6356B25EB}">
           <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$5</xm:f>
+            <xm:f>'status index'!$A$1:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C6 C7:C10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Entry" error="Select value from dropdown" xr:uid="{D43BA407-0993-4F70-9151-EA5975733DBA}">
           <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$5</xm:f>
+            <xm:f>'status index'!$A$1:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E6 E7:E10</xm:sqref>
         </x14:dataValidation>
@@ -750,22 +770,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79FA370-F25F-4907-9A9C-CC9BDBB953BA}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -781,8 +802,11 @@
       <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -794,8 +818,11 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -805,8 +832,11 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -816,8 +846,11 @@
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -827,8 +860,11 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -838,8 +874,11 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -849,8 +888,11 @@
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -860,8 +902,11 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -871,8 +916,14 @@
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="6">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -882,8 +933,11 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -892,6 +946,9 @@
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -914,13 +971,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Entry" error="Select value from dropdown" xr:uid="{45A27309-C72D-4FC5-84B4-B8A95D617205}">
           <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$5</xm:f>
+            <xm:f>'status index'!$A$1:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Entry" error="Select values from dropdown" xr:uid="{D74D6EEB-58B4-4A7E-9BD8-441B9DECAA0B}">
           <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$5</xm:f>
+            <xm:f>'status index'!$A$1:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C11</xm:sqref>
         </x14:dataValidation>

--- a/BCA(OL)_ASSIGNMENT.xlsx
+++ b/BCA(OL)_ASSIGNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6129158\Projects\extras\BCAOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847A89C2-9E13-4D6C-85FE-0C9624072F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0B710D-7FBD-486C-8DCC-FAC52F1151FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{46359B33-B8D4-457A-8C07-85922C7B8647}"/>
   </bookViews>
@@ -136,16 +136,16 @@
     <t>3=3</t>
   </si>
   <si>
-    <t>0=3</t>
-  </si>
-  <si>
     <t>0=0</t>
   </si>
   <si>
-    <t>4=4</t>
-  </si>
-  <si>
-    <t>2=2</t>
+    <t>6=6</t>
+  </si>
+  <si>
+    <t>1=1</t>
+  </si>
+  <si>
+    <t>7=7</t>
   </si>
 </sst>
 </file>
@@ -773,7 +773,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -819,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -833,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -861,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -875,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -889,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -903,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -917,7 +917,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="6">
         <v>45519</v>
@@ -934,7 +934,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
